--- a/biology/Botanique/Gentiana_arethusae/Gentiana_arethusae.xlsx
+++ b/biology/Botanique/Gentiana_arethusae/Gentiana_arethusae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gentiana arethusae est une espèce végétale de la famille des Gentianaceae.
 Il s'agit d'une plante vivace de Chine (Sichuan, Yunnan, Tibet) de 18 cm de hauteur, qui pousse sur pelouse alpine entre 3 800 et 4 600 m d'altitude.
